--- a/biology/Médecine/Diplôme_d'État_de_masseur-kinésithérapeute/Diplôme_d'État_de_masseur-kinésithérapeute.xlsx
+++ b/biology/Médecine/Diplôme_d'État_de_masseur-kinésithérapeute/Diplôme_d'État_de_masseur-kinésithérapeute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_d%27%C3%89tat_de_masseur-kin%C3%A9sith%C3%A9rapeute</t>
+          <t>Diplôme_d'État_de_masseur-kinésithérapeute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le diplôme d’État de masseur-kinésithérapeute (DEMK) forme à la réalisation d'actes de rééducation, d'électro-physiothérapie ou de massage, manuels ou aidés d'appareils adaptés. Depuis 2021, les titulaires du diplôme d'État de kinésithérapeuthe ont le grade de Master. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_d%27%C3%89tat_de_masseur-kin%C3%A9sith%C3%A9rapeute</t>
+          <t>Diplôme_d'État_de_masseur-kinésithérapeute</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Diplôme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'admission est réservée aux étudiants ayant validé le Parcours d'Accès Spécifique Santé (PASS) et sélectionnés sur concours, ou aux étudiants ayant validé la première année d'une licence quelconque avec un Accès santé (L.AS), sélectionnés sur concours également[1].
-Les IFMK doivent conventionner avec une Université disposant d'une composante de santé pour être habilités à délivrer le diplôme[2]. Aujourd'hui, la plupart des formations publiques à la kinésithérapie ne se déroulent plus en IFMK mais directement à l'Université, c'est le cas de la formation par exemple à Marseille, Montbéliard, Orléans, Besançon, Strasbourg, Mulhouse, Toulouse ou encore à Brest.[réf. nécessaire]
-Dans le cadre d'un projet thérapeutique, le futur « kiné » est formé à la réalisation d'actes de rééducation, d'électro-physiothérapie ou de massage, manuels ou aidés d'appareils adaptés[3]. Il intervient pour prévenir ou limiter les conséquences fonctionnelles, physiques du début de la maladie jusqu'à la réinsertion[4].
-L'évaluation de l'élève se fonde également sur la prise en charge des troubles de l'appareil locomoteur, respiratoire, cardio-vasculaire, digestif ou génito-urinaire[5]. 
-En 2021, 2 789 étudiants sont admis en 1re année de préparation du DE masseur-kinésithérapeute en France. La durée totale des études est de 5 ans (1 année de sélection et 4 ans de préparation au diplôme d’État)[6]. 
-Depuis les études terminées en 2021, les titulaires du diplôme d'État se voient délivrer le grade de Master[7]. La fédération nationale des étudiants en kinésithérapie réclamait depuis 2015 l'obtention de ce grade, arguant que les étudiants qui se voient délivrer le Diplôme d'État ont effectué 5 ans d'études, dont une année de sélection, suivie de 4 ans de formation, mais que cette année de sélection n'était alors pas réellement comptabilisée, bien qu'obligatoire. Le ministre des solidarités et de la santé Olivier Véran a publié un décret le 13 août 2020 accordant le grade de master pour les titulaires du diplôme d'État de masseur-kinésithérapeute[8].
-Le diplôme s'obtient en deux cycles après le Parcours Accès Spécifique Santé ou une année de licence avec option Accès aux études de santé, suivie de la réussite au concours d'entrée. Ces cycles durent chacun deux ans[9],[10]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'admission est réservée aux étudiants ayant validé le Parcours d'Accès Spécifique Santé (PASS) et sélectionnés sur concours, ou aux étudiants ayant validé la première année d'une licence quelconque avec un Accès santé (L.AS), sélectionnés sur concours également.
+Les IFMK doivent conventionner avec une Université disposant d'une composante de santé pour être habilités à délivrer le diplôme. Aujourd'hui, la plupart des formations publiques à la kinésithérapie ne se déroulent plus en IFMK mais directement à l'Université, c'est le cas de la formation par exemple à Marseille, Montbéliard, Orléans, Besançon, Strasbourg, Mulhouse, Toulouse ou encore à Brest.[réf. nécessaire]
+Dans le cadre d'un projet thérapeutique, le futur « kiné » est formé à la réalisation d'actes de rééducation, d'électro-physiothérapie ou de massage, manuels ou aidés d'appareils adaptés. Il intervient pour prévenir ou limiter les conséquences fonctionnelles, physiques du début de la maladie jusqu'à la réinsertion.
+L'évaluation de l'élève se fonde également sur la prise en charge des troubles de l'appareil locomoteur, respiratoire, cardio-vasculaire, digestif ou génito-urinaire. 
+En 2021, 2 789 étudiants sont admis en 1re année de préparation du DE masseur-kinésithérapeute en France. La durée totale des études est de 5 ans (1 année de sélection et 4 ans de préparation au diplôme d’État). 
+Depuis les études terminées en 2021, les titulaires du diplôme d'État se voient délivrer le grade de Master. La fédération nationale des étudiants en kinésithérapie réclamait depuis 2015 l'obtention de ce grade, arguant que les étudiants qui se voient délivrer le Diplôme d'État ont effectué 5 ans d'études, dont une année de sélection, suivie de 4 ans de formation, mais que cette année de sélection n'était alors pas réellement comptabilisée, bien qu'obligatoire. Le ministre des solidarités et de la santé Olivier Véran a publié un décret le 13 août 2020 accordant le grade de master pour les titulaires du diplôme d'État de masseur-kinésithérapeute.
+Le diplôme s'obtient en deux cycles après le Parcours Accès Spécifique Santé ou une année de licence avec option Accès aux études de santé, suivie de la réussite au concours d'entrée. Ces cycles durent chacun deux ans,:
 Cycle 1 (Formation générale, 2 ans)
 L2 (K1) : première année de formation intégrant un enseignement théorique, un stage de 2 semaines, et un stage de 4 semaines ;
 L3 (K2) : deuxième année de formation, intégrant un enseignement théorique, et deux stages de 6 semaines ;
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_d%27%C3%89tat_de_masseur-kin%C3%A9sith%C3%A9rapeute</t>
+          <t>Diplôme_d'État_de_masseur-kinésithérapeute</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Programme et épreuves</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Voici la liste des matières évalués durant les 4 ans de formation du DE[11]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voici la liste des matières évalués durant les 4 ans de formation du DE:
 Santé publique ;
 Sciences humaines et sciences sociales ;
 Sciences biomédicales
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dipl%C3%B4me_d%27%C3%89tat_de_masseur-kin%C3%A9sith%C3%A9rapeute</t>
+          <t>Diplôme_d'État_de_masseur-kinésithérapeute</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Schéma des études</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
